--- a/gd/MT/UI音效逻辑 - MT.xlsx
+++ b/gd/MT/UI音效逻辑 - MT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="22400" windowHeight="17000" tabRatio="500"/>
+    <workbookView xWindow="2340" yWindow="920" windowWidth="32740" windowHeight="18200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="通用按钮+事件" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
   <si>
     <t>UI类别</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t>已有</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>补各个UI打开需求</t>
+  </si>
+  <si>
+    <t>在标明， 分类。</t>
+  </si>
+  <si>
+    <t>不断按。</t>
+  </si>
+  <si>
+    <t>指定在那里</t>
+  </si>
+  <si>
+    <t>写一个</t>
   </si>
 </sst>
 </file>
@@ -545,7 +566,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,6 +782,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2808,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2824,7 +2853,7 @@
     <col min="6" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2838,34 +2867,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +2902,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
@@ -2881,23 +2913,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +2937,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="C11" s="21" t="s">
         <v>35</v>
       </c>
@@ -2913,62 +2948,74 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="21" t="s">
         <v>128</v>
       </c>
@@ -2976,7 +3023,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>98</v>
       </c>
@@ -2998,7 +3045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +3053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>116</v>
       </c>
@@ -3014,7 +3061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>105</v>
       </c>
@@ -3024,8 +3071,11 @@
       <c r="C26" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>61</v>
       </c>
@@ -3033,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>63</v>
       </c>
@@ -3049,7 +3099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>98</v>
       </c>
@@ -3057,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>80</v>
       </c>
@@ -3065,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>81</v>
       </c>
@@ -3130,7 +3180,7 @@
   <dimension ref="A1:E1101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
@@ -7938,7 +7988,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8212,7 +8262,7 @@
   <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
